--- a/data/trans_dic/P12B1_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales 16-59 años</t>
+          <t>Población que requiere cuidados especiales 16-59 años (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>74,69%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>76,29%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,75%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>71,72%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,48</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,16; 100,0</t>
+          <t>1,4; 8,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,93; 100,0</t>
+          <t>1,73; 10,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,46; 87,09</t>
+          <t>2,25; 12,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,83; 100,0</t>
+          <t>0,83; 9,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>2,58; 13,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,39; 100,0</t>
+          <t>0,54; 4,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,67; 86,24</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 63,52</t>
+          <t>0,84; 5,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,74; 85,88</t>
+          <t>0,0; 4,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41,23; 92,79</t>
+          <t>0,72; 9,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,11; 71,06</t>
+          <t>0,79; 7,09</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 2,83</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 4,5</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 6,7</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 7,44</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 7,2</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 9,3</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,88%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>53,46%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,88; 73,67</t>
+          <t>1,01; 6,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,25</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,04</t>
+          <t>0,0; 3,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,62; 6,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,39</t>
+          <t>2,05; 12,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,29; 77,52</t>
+          <t>0,0; 3,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 72,59</t>
+          <t>0,0; 2,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,59; 71,65</t>
+          <t>0,43; 3,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 35,77</t>
+          <t>0,52; 4,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 59,49</t>
+          <t>0,52; 4,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 46,02</t>
+          <t>2,67; 11,2</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 4,25</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 1,82</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 2,59</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 4,0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,41</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 9,78</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 100,0</t>
+          <t>0,38; 3,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 61,59</t>
+          <t>0,31; 2,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,48</t>
+          <t>0,32; 3,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,39; 77,98</t>
+          <t>0,76; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,73; 66,86</t>
+          <t>0,83; 4,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,17; 47,31</t>
+          <t>0,0; 4,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,35; 57,6</t>
+          <t>1,44; 5,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,11; 60,07</t>
+          <t>1,14; 4,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,22; 63,97</t>
+          <t>1,23; 4,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 43,73</t>
+          <t>1,89; 6,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 42,36</t>
+          <t>0,45; 4,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,39; 62,15</t>
+          <t>1,62; 7,65</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 3,86</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 2,95</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 3,02</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 4,5</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 3,74</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 4,42</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48,9%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>53,72%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>62,78%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,05%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>76,97%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>47,06%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>8,63%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,44; 69,0</t>
+          <t>1,91; 6,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,19; 73,65</t>
+          <t>1,49; 5,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,35; 72,47</t>
+          <t>2,34; 6,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,14; 78,31</t>
+          <t>4,35; 11,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,42; 55,16</t>
+          <t>7,42; 17,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,6; 56,32</t>
+          <t>4,73; 15,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,81; 58,52</t>
+          <t>1,91; 5,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,09; 94,11</t>
+          <t>1,91; 5,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,55; 55,79</t>
+          <t>2,56; 6,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,28; 58,65</t>
+          <t>4,09; 10,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,75; 60,32</t>
+          <t>2,9; 9,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,32; 80,22</t>
+          <t>3,99; 10,72</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 5,77</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,14; 4,86</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 5,99</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 9,33</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 12,55</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,32; 11,56</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,71%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>66,83%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,36; 73,8</t>
+          <t>1,31; 6,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,44; 86,44</t>
+          <t>2,08; 7,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,66; 55,32</t>
+          <t>1,16; 5,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,21; 76,93</t>
+          <t>1,8; 7,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 28,04</t>
+          <t>4,06; 12,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 44,81</t>
+          <t>2,99; 10,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,11; 47,79</t>
+          <t>0,35; 3,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,27; 43,65</t>
+          <t>1,38; 5,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,05; 39,58</t>
+          <t>1,87; 6,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,23; 56,12</t>
+          <t>1,63; 7,77</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,77; 44,59</t>
+          <t>1,46; 6,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,63; 52,3</t>
+          <t>2,64; 9,21</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 3,91</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,17; 5,31</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 5,17</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 6,04</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>3,11; 7,86</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 8,3</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1705,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1371,47 +1720,77 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 19,05</t>
+          <t>0,45; 4,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,87</t>
+          <t>0,0; 7,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,86; 40,04</t>
+          <t>1,2; 7,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,96</t>
+          <t>0,56; 6,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 17,44</t>
+          <t>0,86; 6,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 16,27</t>
+          <t>0,0; 3,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 28,9</t>
+          <t>0,65; 3,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 11,11</t>
+          <t>0,55; 3,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,26; 21,05</t>
+          <t>0,0; 4,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 11,09</t>
+          <t>0,54; 7,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,18; 24,61</t>
+          <t>0,48; 4,55</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 2,76</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 4,31</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 2,11</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 4,35</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 5,02</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 4,35</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,99; 37,45</t>
+          <t>1,54; 3,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,61; 42,61</t>
+          <t>1,6; 3,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,8; 41,03</t>
+          <t>1,6; 3,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,59; 54,18</t>
+          <t>2,89; 5,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,77; 27,32</t>
+          <t>3,25; 6,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,4; 27,75</t>
+          <t>3,46; 6,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,52; 31,7</t>
+          <t>1,34; 2,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,27; 37,42</t>
+          <t>1,47; 2,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,06; 29,73</t>
+          <t>1,96; 3,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,99; 31,55</t>
+          <t>2,27; 4,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,15; 32,32</t>
+          <t>2,12; 4,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>27,49; 42,37</t>
+          <t>3,29; 5,76</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 2,75</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 2,88</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 3,06</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 4,46</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 4,74</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 5,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales 16-59 años (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3393</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21124</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>23477</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26969</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1327</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2607</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8244</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11455</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6266</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11637</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>23224</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>34932</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>33235</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2536</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3516</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16970</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7332; 42811</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8810; 54994</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10261; 57005</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>349; 4012</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1009; 5341</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2522; 22281</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10552</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4321; 26958</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21018</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>267; 3579</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>271; 2450</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2951; 27396</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10528; 46783</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>19282; 68664</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>13644; 68581</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1018; 5719</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1655; 6850</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15933</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4206</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6053</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11700</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2393</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6096</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4214</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8301</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8462</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2372</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>22029</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8420</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>14354</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>20162</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4765</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5762; 35205</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13649</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21152</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3488; 34404</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>880; 5410</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19685</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14108</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2220; 20083</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2544; 22094</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>244; 2226</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1041; 4368</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9813; 46257</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2101; 19472</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5586; 28569</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6733; 42412</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>249; 2335</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2494; 8011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11019</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7969</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8707</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13632</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1330</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20899</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16596</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16529</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25286</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1717</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>31918</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>24565</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>25236</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>38919</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2478</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2415</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2610; 25778</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2136; 19415</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2163; 21971</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5038; 29743</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>499; 2966</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2465</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10204; 39149</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8148; 30270</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8781; 31063</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12993; 44081</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>242; 2478</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>747; 3535</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>17940; 53857</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>13424; 41200</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>13930; 42088</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>23211; 60696</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1177; 4271</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1255; 4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>24936</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20817</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27219</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47127</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6624</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24288</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23752</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28440</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>43190</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2916</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3454</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>49224</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>44569</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>55659</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>90317</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>9540</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>7678</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12371; 42783</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9616; 36179</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14914; 41534</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28411; 74318</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4324; 9904</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2343; 7499</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13115; 40316</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12851; 38305</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16919; 43142</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>26674; 68296</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1514; 5073</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1978; 5312</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>31902; 76879</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>28136; 63993</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>38046; 77755</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>65159; 121872</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>6784; 13869</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>5275; 11462</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15285</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19858</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13933</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17765</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3207</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6477</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14410</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>18901</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19514</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>21762</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>34269</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>32833</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>37279</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>4970</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>4744</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6467; 30095</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10458; 36255</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5697; 24997</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8652; 34215</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1808; 5357</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1238; 4321</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1753; 18567</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6945; 26499</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>9576; 33350</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>8315; 39581</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>713; 3215</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1139; 3978</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>11104; 39170</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>21796; 53344</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>19954; 51967</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>21040; 59893</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>2896; 7330</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>2985; 7022</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8408</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8477</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>18630</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1241</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6742</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12095</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11436</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8687</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1479</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>15150</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>20573</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>11436</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>27317</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>2347</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2467; 23092</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 37152</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6703; 43746</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>263; 2962</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>379; 3030</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 22432</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4500; 26890</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3792; 24995</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 31083</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>343; 4573</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>276; 2634</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>5697; 34798</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>7116; 52730</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>4415; 25735</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>10647; 55364</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1037; 5554</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1096; 4433</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>78973</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>82451</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>79388</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>135823</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>13579</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>13608</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>72746</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>73169</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>95062</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>111406</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>9403</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>11858</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>151719</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>155620</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>174450</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>247228</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>22983</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>25466</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>53052; 113460</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>55217; 118774</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>54960; 115390</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>97615; 185070</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>9803; 18296</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9412; 18469</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>48467; 103812</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>52975; 100598</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>70695; 124539</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>80062; 150322</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6444; 12968</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>8883; 15585</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>114771; 193618</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>120767; 203255</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>137076; 215591</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>200448; 308086</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>17929; 28679</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>20763; 31818</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
